--- a/Test Data Driven/AI-Generated/TC111-Record Test Cases in Team Project.xlsx
+++ b/Test Data Driven/AI-Generated/TC111-Record Test Cases in Team Project.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,32 +446,263 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+    <col width="47" customWidth="1" min="3" max="3"/>
+    <col width="44" customWidth="1" min="4" max="4"/>
+    <col width="46" customWidth="1" min="5" max="5"/>
+    <col width="46" customWidth="1" min="6" max="6"/>
+    <col width="46" customWidth="1" min="7" max="7"/>
+    <col width="46" customWidth="1" min="8" max="8"/>
+    <col width="46" customWidth="1" min="9" max="9"/>
+    <col width="46" customWidth="1" min="10" max="10"/>
+    <col width="46" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="34" customWidth="1" min="14" max="14"/>
+    <col width="41" customWidth="1" min="15" max="15"/>
+    <col width="31" customWidth="1" min="16" max="16"/>
+    <col width="28" customWidth="1" min="17" max="17"/>
+    <col width="43" customWidth="1" min="18" max="18"/>
+    <col width="45" customWidth="1" min="19" max="19"/>
+    <col width="45" customWidth="1" min="20" max="20"/>
+    <col width="45" customWidth="1" min="21" max="21"/>
+    <col width="45" customWidth="1" min="22" max="22"/>
+    <col width="45" customWidth="1" min="23" max="23"/>
+    <col width="45" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>input_dynamicObject</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>input_dynamicObject_internalAttrPlaceholder</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>input_dynamicObject_internalAttrPlaceholder_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>input_dynamicObject_internalRoleButtonName</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>input_dynamicObject_internalRoleButtonName_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>input_dynamicObject_internalRoleButtonName_2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>input_dynamicObject_internalRoleButtonName_3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>input_dynamicObject_internalRoleButtonName_4</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>input_dynamicObject_internalRoleButtonName_5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>input_dynamicObject_internalRoleButtonName_6</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>input_dynamicObject_internalRoleButtonName_7</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>input_rkv</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>input_rm9</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>input_testStepEditAutocompleteInput</t>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>link_dynamicObject_executions_id</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>link_dynamicObject_internalRoleLinkName</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>link_dynamicObject_project_id</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>link_dynamicObject_team_id</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>span_dynamicObject_internalRoleButtonName</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>span_dynamicObject_internalRoleButtonName_1</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>span_dynamicObject_internalRoleButtonName_2</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>span_dynamicObject_internalRoleButtonName_3</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>span_dynamicObject_internalRoleButtonName_4</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>span_dynamicObject_internalRoleButtonName_5</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>span_dynamicObject_internalRoleButtonName_6</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Object</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dropdown object</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Drag Select  Click on 'span</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Drag Select  Click on 'span</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Drag Select  Click on 'span</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Drag Select  Click on '</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Drag Select  Click on '</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Drag Select  Click on 'span</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Drag Select  Click on 'span</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Drag Select  Click on 'span</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>#44 FP HV Sample test case</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1251064</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>1231441</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Drag Select  Enter a</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Drag Select  Enter a</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Drag Select  Enter a</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Drag Select   Select 'Price</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Drag Select   Select 'Price</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Drag Select   Select 'Price</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Drag Select   Select 'Price</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
